--- a/Data/Lipid raft/PWMoutcomeFUSandHNRNP.xlsx
+++ b/Data/Lipid raft/PWMoutcomeFUSandHNRNP.xlsx
@@ -224,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -232,30 +232,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCFD4D8"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCFD4D8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,7 +529,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,12 +539,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -623,7 +613,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -633,18 +623,18 @@
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>574</v>
       </c>
@@ -654,7 +644,7 @@
       <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -701,12 +691,12 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
